--- a/jane_coevolution_analysis/jane_output/jane_output_stats.xlsx
+++ b/jane_coevolution_analysis/jane_output/jane_output_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/Kettenburg_mada-bat-picornavirus/jane_coevolution_analysis/jane_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B37303-566A-D14E-847B-00A2C193EECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE41E47-C2F1-F24A-A77B-65BEB9EAE19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29660" yWindow="-1740" windowWidth="24800" windowHeight="19540" xr2:uid="{CF22D0A5-7DAF-6742-A274-20BCD88D2C50}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/jane_coevolution_analysis/jane_output/jane_output_stats.xlsx
+++ b/jane_coevolution_analysis/jane_output/jane_output_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/Kettenburg_mada-bat-picornavirus/jane_coevolution_analysis/jane_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE41E47-C2F1-F24A-A77B-65BEB9EAE19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8CB4BD-9578-ED46-8EC8-C7BDC20017CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29660" yWindow="-1740" windowWidth="24800" windowHeight="19540" xr2:uid="{CF22D0A5-7DAF-6742-A274-20BCD88D2C50}"/>
+    <workbookView xWindow="1340" yWindow="760" windowWidth="24800" windowHeight="18360" xr2:uid="{CF22D0A5-7DAF-6742-A274-20BCD88D2C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/jane_coevolution_analysis/jane_output/jane_output_stats.xlsx
+++ b/jane_coevolution_analysis/jane_output/jane_output_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/Kettenburg_mada-bat-picornavirus/jane_coevolution_analysis/jane_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8CB4BD-9578-ED46-8EC8-C7BDC20017CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB94000-E261-5247-8923-B8E7226A7532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="760" windowWidth="24800" windowHeight="18360" xr2:uid="{CF22D0A5-7DAF-6742-A274-20BCD88D2C50}"/>
+    <workbookView xWindow="34920" yWindow="-1360" windowWidth="28920" windowHeight="19360" xr2:uid="{CF22D0A5-7DAF-6742-A274-20BCD88D2C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="28">
   <si>
     <t>Teschovirus</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>Mischivirus</t>
+  </si>
+  <si>
+    <t>Kunsagivirus</t>
+  </si>
+  <si>
+    <t>Hepatovirus</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>1-20</t>
   </si>
 </sst>
 </file>
@@ -140,9 +155,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -479,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF55E1D-57D6-4C47-A405-D8A4869EBCED}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:K16"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1345,6 +1363,579 @@
         <v>100</v>
       </c>
     </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>11</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>9</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>12</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>100</v>
+      </c>
+      <c r="K49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>100</v>
+      </c>
+      <c r="K51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>100</v>
+      </c>
+      <c r="K57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>100</v>
+      </c>
+      <c r="K58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="J60">
+        <v>100</v>
+      </c>
+      <c r="K60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>10</v>
+      </c>
+      <c r="J61">
+        <v>100</v>
+      </c>
+      <c r="K61">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/jane_coevolution_analysis/jane_output/jane_output_stats.xlsx
+++ b/jane_coevolution_analysis/jane_output/jane_output_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/Kettenburg_mada-bat-picornavirus/jane_coevolution_analysis/jane_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB94000-E261-5247-8923-B8E7226A7532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E39598-26D1-6B47-9EF9-534DF0463AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34920" yWindow="-1360" windowWidth="28920" windowHeight="19360" xr2:uid="{CF22D0A5-7DAF-6742-A274-20BCD88D2C50}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19100" windowHeight="17340" xr2:uid="{CF22D0A5-7DAF-6742-A274-20BCD88D2C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="28">
   <si>
     <t>Teschovirus</t>
   </si>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF55E1D-57D6-4C47-A405-D8A4869EBCED}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1198,17 +1198,17 @@
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>19</v>
+      <c r="C30" s="1">
+        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30">
         <v>100</v>
@@ -1233,17 +1233,17 @@
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>19</v>
+      <c r="C31" s="1">
+        <v>1</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1268,17 +1268,17 @@
       <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>16</v>
+      <c r="C32" s="1">
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1300,27 +1300,6 @@
       <c r="A33">
         <v>4</v>
       </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>9</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>11</v>
-      </c>
       <c r="J33">
         <v>100</v>
       </c>
@@ -1335,26 +1314,26 @@
       <c r="B34" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>19</v>
+      <c r="C34" s="1">
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>9</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J34">
         <v>100</v>

--- a/jane_coevolution_analysis/jane_output/jane_output_stats.xlsx
+++ b/jane_coevolution_analysis/jane_output/jane_output_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/Kettenburg_mada-bat-picornavirus/jane_coevolution_analysis/jane_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E39598-26D1-6B47-9EF9-534DF0463AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84A3A44-7AC7-C143-9BB8-5DBD7C80A97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19100" windowHeight="17340" xr2:uid="{CF22D0A5-7DAF-6742-A274-20BCD88D2C50}"/>
+    <workbookView xWindow="1860" yWindow="780" windowWidth="19100" windowHeight="17340" xr2:uid="{CF22D0A5-7DAF-6742-A274-20BCD88D2C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="26">
   <si>
     <t>Teschovirus</t>
   </si>
@@ -98,9 +98,6 @@
     <t>1,2,3</t>
   </si>
   <si>
-    <t>1,2,3,4,</t>
-  </si>
-  <si>
     <t>condition</t>
   </si>
   <si>
@@ -110,16 +107,13 @@
     <t>Mischivirus</t>
   </si>
   <si>
-    <t>Kunsagivirus</t>
-  </si>
-  <si>
     <t>Hepatovirus</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6</t>
-  </si>
-  <si>
-    <t>1-20</t>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>1,2,3,</t>
   </si>
 </sst>
 </file>
@@ -160,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -497,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF55E1D-57D6-4C47-A405-D8A4869EBCED}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,10 +515,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -568,10 +562,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -603,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -632,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -650,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <v>100</v>
@@ -662,27 +656,6 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
       </c>
       <c r="J6">
         <v>100</v>
@@ -698,26 +671,26 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
+      <c r="C7" s="1">
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -726,88 +699,85 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
         <v>5</v>
       </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
         <v>7</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J12" t="s">
         <v>8</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K12" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <v>100</v>
-      </c>
-      <c r="K12">
-        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
@@ -816,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -828,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J13">
         <v>100</v>
@@ -839,22 +809,22 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -863,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>100</v>
@@ -874,19 +844,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -906,120 +879,96 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>5</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>8</v>
-      </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>13</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
         <v>5</v>
       </c>
-      <c r="H20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
         <v>7</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J21" t="s">
         <v>8</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K21" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>9</v>
-      </c>
-      <c r="F21">
-        <v>12</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>21</v>
-      </c>
-      <c r="J21">
-        <v>100</v>
-      </c>
-      <c r="K21">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
@@ -1028,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1040,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J22">
         <v>100</v>
@@ -1051,22 +1000,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1075,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>100</v>
@@ -1086,22 +1035,25 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>8</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1118,167 +1070,161 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>16</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>28</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>28</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
         <v>20</v>
       </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25">
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" t="s">
         <v>9</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>23</v>
-      </c>
-      <c r="J25">
-        <v>100</v>
-      </c>
-      <c r="K25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>7</v>
-      </c>
-      <c r="F30">
-        <v>5</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>12</v>
-      </c>
-      <c r="J30">
-        <v>100</v>
-      </c>
-      <c r="K30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>7</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>100</v>
-      </c>
-      <c r="K31">
-        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>7</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1287,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J32">
         <v>100</v>
@@ -1298,7 +1244,31 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
       </c>
       <c r="J33">
         <v>100</v>
@@ -1309,167 +1279,143 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>11</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>5</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>9</v>
       </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>15</v>
       </c>
-      <c r="J34">
-        <v>100</v>
-      </c>
-      <c r="K34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>22</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
         <v>5</v>
       </c>
-      <c r="H38" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" t="s">
         <v>7</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J40" t="s">
         <v>8</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K40" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>5</v>
-      </c>
-      <c r="F39">
-        <v>6</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>11</v>
-      </c>
-      <c r="J39">
-        <v>100</v>
-      </c>
-      <c r="K39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-      <c r="F40">
-        <v>6</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>100</v>
-      </c>
-      <c r="K40">
-        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>6</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1478,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J41">
         <v>100</v>
@@ -1489,7 +1435,31 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
       </c>
       <c r="J42">
         <v>100</v>
@@ -1500,167 +1470,143 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>5</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>6</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>12</v>
-      </c>
-      <c r="J43">
-        <v>100</v>
-      </c>
-      <c r="K43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>13</v>
+      </c>
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
         <v>5</v>
       </c>
-      <c r="H47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="H49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" t="s">
         <v>7</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J49" t="s">
         <v>8</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K49" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>3</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>3</v>
-      </c>
-      <c r="J48">
-        <v>100</v>
-      </c>
-      <c r="K48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>3</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>100</v>
-      </c>
-      <c r="K49">
-        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -1669,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J50">
         <v>100</v>
@@ -1680,7 +1626,31 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
       </c>
       <c r="J51">
         <v>100</v>
@@ -1691,227 +1661,82 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>100</v>
+      </c>
+      <c r="K53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>5</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>100</v>
-      </c>
-      <c r="K52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" t="s">
-        <v>7</v>
-      </c>
-      <c r="J56" t="s">
-        <v>8</v>
-      </c>
-      <c r="K56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57">
-        <v>8</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>10</v>
-      </c>
-      <c r="J57">
-        <v>100</v>
-      </c>
-      <c r="K57">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-      <c r="F58">
-        <v>8</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>100</v>
-      </c>
-      <c r="K58">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>3</v>
-      </c>
-      <c r="B59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59">
-        <v>4</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>6</v>
-      </c>
-      <c r="J59">
-        <v>100</v>
-      </c>
-      <c r="K59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>4</v>
-      </c>
-      <c r="J60">
-        <v>100</v>
-      </c>
-      <c r="K60">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>5</v>
-      </c>
-      <c r="B61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61">
-        <v>4</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>10</v>
-      </c>
-      <c r="J61">
-        <v>100</v>
-      </c>
-      <c r="K61">
+      <c r="C54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>14</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54">
         <v>100</v>
       </c>
     </row>

--- a/jane_coevolution_analysis/jane_output/jane_output_stats.xlsx
+++ b/jane_coevolution_analysis/jane_output/jane_output_stats.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/Kettenburg_mada-bat-picornavirus/jane_coevolution_analysis/jane_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84A3A44-7AC7-C143-9BB8-5DBD7C80A97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48701126-743A-874B-AB3F-04BDC7E8DCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="780" windowWidth="19100" windowHeight="17340" xr2:uid="{CF22D0A5-7DAF-6742-A274-20BCD88D2C50}"/>
+    <workbookView xWindow="1860" yWindow="780" windowWidth="19100" windowHeight="17340" activeTab="1" xr2:uid="{CF22D0A5-7DAF-6742-A274-20BCD88D2C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
   <si>
     <t>Teschovirus</t>
   </si>
@@ -114,13 +115,120 @@
   </si>
   <si>
     <t>1,2,3,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Supplementary table 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Jane co-evolutionary analysis output for virus genera and their hosts identified in this study. The least costly evolutionary scenario is 0, which is further shown in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Figure 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Supplemental figure 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>Virus genus</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t># Co-speciations</t>
+  </si>
+  <si>
+    <t># Duplications</t>
+  </si>
+  <si>
+    <t># Host switches</t>
+  </si>
+  <si>
+    <t># Losses</t>
+  </si>
+  <si>
+    <t># Failures to diverge</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unclassified </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>bat picornavirus</t>
+    </r>
+  </si>
+  <si>
+    <t>Events = 1</t>
+  </si>
+  <si>
+    <t>Events = 0</t>
+  </si>
+  <si>
+    <t>Co-speciation = 0, other events =1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,16 +236,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -145,17 +286,328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF55E1D-57D6-4C47-A405-D8A4869EBCED}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1743,4 +2195,544 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5ADC09-A4CA-704C-92F3-D9E486D96A64}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>7</v>
+      </c>
+      <c r="E7" s="12">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12">
+        <v>6</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="16">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12">
+        <v>3</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>4</v>
+      </c>
+      <c r="E11" s="8">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12">
+        <v>6</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12">
+        <v>3</v>
+      </c>
+      <c r="E13" s="12">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>10</v>
+      </c>
+      <c r="E15" s="12">
+        <v>11</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="16">
+        <v>5</v>
+      </c>
+      <c r="D16" s="12">
+        <v>8</v>
+      </c>
+      <c r="E16" s="12">
+        <v>8</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25">
+        <v>6</v>
+      </c>
+      <c r="D17" s="26">
+        <v>8</v>
+      </c>
+      <c r="E17" s="26">
+        <v>7</v>
+      </c>
+      <c r="F17" s="26">
+        <v>1</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0</v>
+      </c>
+      <c r="H17" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8">
+        <v>5</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>6</v>
+      </c>
+      <c r="E19" s="12">
+        <v>5</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="26">
+        <v>3</v>
+      </c>
+      <c r="D20" s="26">
+        <v>6</v>
+      </c>
+      <c r="E20" s="26">
+        <v>2</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0</v>
+      </c>
+      <c r="H20" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>8</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2</v>
+      </c>
+      <c r="E22" s="12">
+        <v>8</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="26">
+        <v>4</v>
+      </c>
+      <c r="D23" s="26">
+        <v>2</v>
+      </c>
+      <c r="E23" s="26">
+        <v>4</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+      <c r="H23" s="27">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/jane_coevolution_analysis/jane_output/jane_output_stats.xlsx
+++ b/jane_coevolution_analysis/jane_output/jane_output_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/Kettenburg_mada-bat-picornavirus/jane_coevolution_analysis/jane_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48701126-743A-874B-AB3F-04BDC7E8DCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA6BA8F-C40C-A14D-AE26-665100707E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="780" windowWidth="19100" windowHeight="17340" activeTab="1" xr2:uid="{CF22D0A5-7DAF-6742-A274-20BCD88D2C50}"/>
+    <workbookView xWindow="9720" yWindow="760" windowWidth="19100" windowHeight="17340" xr2:uid="{CF22D0A5-7DAF-6742-A274-20BCD88D2C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="37">
   <si>
     <t>Teschovirus</t>
   </si>
@@ -69,12 +69,6 @@
     <t>generations</t>
   </si>
   <si>
-    <t>events = 0</t>
-  </si>
-  <si>
-    <t>events = 1</t>
-  </si>
-  <si>
     <t>Sapelovirus</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>1,2</t>
   </si>
   <si>
-    <t>cospeciation = 0, other events = 1</t>
-  </si>
-  <si>
     <t>1,2,3,4</t>
   </si>
   <si>
@@ -109,12 +100,6 @@
   </si>
   <si>
     <t>Hepatovirus</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>1,2,3,</t>
   </si>
   <si>
     <r>
@@ -222,6 +207,15 @@
   </si>
   <si>
     <t>Co-speciation = 0, other events =1</t>
+  </si>
+  <si>
+    <t>events = 0, NULL</t>
+  </si>
+  <si>
+    <t>events = 1, host switching and duplication dominant</t>
+  </si>
+  <si>
+    <t>cospeciation = 0, other events = 1, cospeciation dominant</t>
   </si>
 </sst>
 </file>
@@ -534,15 +528,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -551,9 +536,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -564,38 +546,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -608,6 +563,45 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF55E1D-57D6-4C47-A405-D8A4869EBCED}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -967,10 +961,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1005,10 +999,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1040,25 +1034,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1075,10 +1051,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1121,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1186,15 +1162,15 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
@@ -1229,10 +1205,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1264,10 +1240,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1299,10 +1275,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -1345,10 +1321,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -1377,15 +1353,15 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
@@ -1420,10 +1396,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1455,10 +1431,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1490,10 +1466,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -1557,10 +1533,10 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1621,15 +1597,15 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1</v>
@@ -1664,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1673,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1685,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J32">
         <v>100</v>
@@ -1699,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1708,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1734,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1780,7 +1756,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -1812,15 +1788,15 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>1</v>
@@ -1855,10 +1831,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1890,10 +1866,10 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1925,10 +1901,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -1971,10 +1947,10 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -2003,15 +1979,15 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>1</v>
@@ -2046,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C50" s="2">
         <v>5.5555555555555552E-2</v>
@@ -2081,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C51" s="2">
         <v>5.5555555555555552E-2</v>
@@ -2116,10 +2092,10 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -2162,10 +2138,10 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -2201,7 +2177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5ADC09-A4CA-704C-92F3-D9E486D96A64}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -2209,509 +2185,509 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="G3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="H3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
         <v>7</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E7" s="8">
+        <v>4</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>4</v>
+      </c>
+      <c r="E9" s="8">
+        <v>6</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="11">
         <v>5</v>
       </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="D10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="11">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>10</v>
+      </c>
+      <c r="E15" s="8">
+        <v>11</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="11">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8">
         <v>8</v>
       </c>
-      <c r="E6" s="12">
-        <v>4</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="E16" s="8">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="12">
+        <v>6</v>
+      </c>
+      <c r="D17" s="13">
+        <v>8</v>
+      </c>
+      <c r="E17" s="13">
+        <v>7</v>
+      </c>
+      <c r="F17" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="12">
-        <v>7</v>
-      </c>
-      <c r="E7" s="12">
-        <v>4</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8">
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
         <v>6</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="E19" s="8">
+        <v>5</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="13">
+        <v>3</v>
+      </c>
+      <c r="D20" s="13">
+        <v>6</v>
+      </c>
+      <c r="E20" s="13">
+        <v>2</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>8</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>4</v>
-      </c>
-      <c r="E9" s="12">
-        <v>6</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="16">
-        <v>5</v>
-      </c>
-      <c r="D10" s="12">
-        <v>3</v>
-      </c>
-      <c r="E10" s="12">
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
         <v>2</v>
       </c>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>4</v>
-      </c>
-      <c r="E11" s="8">
-        <v>6</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
-        <v>4</v>
-      </c>
-      <c r="E12" s="12">
-        <v>6</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="16">
-        <v>3</v>
-      </c>
-      <c r="D13" s="12">
-        <v>3</v>
-      </c>
-      <c r="E13" s="12">
-        <v>4</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8">
-        <v>11</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <v>10</v>
-      </c>
-      <c r="E15" s="12">
-        <v>11</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="16">
-        <v>5</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="E22" s="8">
         <v>8</v>
       </c>
-      <c r="E16" s="12">
-        <v>8</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25">
-        <v>6</v>
-      </c>
-      <c r="D17" s="26">
-        <v>8</v>
-      </c>
-      <c r="E17" s="26">
-        <v>7</v>
-      </c>
-      <c r="F17" s="26">
-        <v>1</v>
-      </c>
-      <c r="G17" s="26">
-        <v>0</v>
-      </c>
-      <c r="H17" s="27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>6</v>
-      </c>
-      <c r="E18" s="8">
-        <v>5</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="12">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12">
-        <v>6</v>
-      </c>
-      <c r="E19" s="12">
-        <v>5</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="26">
-        <v>3</v>
-      </c>
-      <c r="D20" s="26">
-        <v>6</v>
-      </c>
-      <c r="E20" s="26">
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="13">
+        <v>4</v>
+      </c>
+      <c r="D23" s="13">
         <v>2</v>
       </c>
-      <c r="F20" s="26">
-        <v>0</v>
-      </c>
-      <c r="G20" s="26">
-        <v>0</v>
-      </c>
-      <c r="H20" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>2</v>
-      </c>
-      <c r="E21" s="8">
-        <v>8</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="12">
-        <v>0</v>
-      </c>
-      <c r="D22" s="12">
-        <v>2</v>
-      </c>
-      <c r="E22" s="12">
-        <v>8</v>
-      </c>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-      <c r="H22" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="26">
-        <v>4</v>
-      </c>
-      <c r="D23" s="26">
-        <v>2</v>
-      </c>
-      <c r="E23" s="26">
-        <v>4</v>
-      </c>
-      <c r="F23" s="26">
-        <v>0</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-      <c r="H23" s="27">
+      <c r="E23" s="13">
+        <v>4</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
         <v>6</v>
       </c>
     </row>

--- a/jane_coevolution_analysis/jane_output/jane_output_stats.xlsx
+++ b/jane_coevolution_analysis/jane_output/jane_output_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/Kettenburg_mada-bat-picornavirus/jane_coevolution_analysis/jane_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA6BA8F-C40C-A14D-AE26-665100707E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60D572C-C7D9-5A40-86C0-3E1F8D1F343C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9720" yWindow="760" windowWidth="19100" windowHeight="17340" xr2:uid="{CF22D0A5-7DAF-6742-A274-20BCD88D2C50}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="37">
   <si>
     <t>Teschovirus</t>
   </si>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF55E1D-57D6-4C47-A405-D8A4869EBCED}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1035,6 +1035,24 @@
       </c>
       <c r="B4" t="s">
         <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
